--- a/bang_luong.xlsx
+++ b/bang_luong.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,6 +530,37 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bùi Anh Dũng</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/bang_luong.xlsx
+++ b/bang_luong.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,6 +561,68 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bùi Anh Dũng</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bùi Anh Dũng</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/bang_luong.xlsx
+++ b/bang_luong.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Đạt</t>
+          <t>Lê Văn B</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -621,6 +621,37 @@
       </c>
       <c r="I6" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bùi Anh Dũng</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3500000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3500000</v>
       </c>
     </row>
   </sheetData>
